--- a/cta策略/result/螺纹/RSI_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/RSI_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>参数</t>
   </si>
@@ -32,6 +32,30 @@
   </si>
   <si>
     <t>绩效数据</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>-inf</t>
@@ -419,154 +443,154 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.08405145548552295</v>
+        <v>-0.04409476185828631</v>
       </c>
       <c r="D2">
-        <v>0.1634707503117519</v>
+        <v>-0.3847292042263911</v>
       </c>
       <c r="E2">
-        <v>0.1870173525357211</v>
+        <v>-0.05990766418052403</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.1389798126344866</v>
+        <v>-0.04853594103352055</v>
       </c>
       <c r="D3">
-        <v>0.3686154652505156</v>
+        <v>-0.4062270683291955</v>
       </c>
       <c r="E3">
-        <v>0.2780330438148106</v>
+        <v>-0.06594150265436688</v>
       </c>
       <c r="F3">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.2355269152582187</v>
+        <v>-0.0489767702056022</v>
       </c>
       <c r="D4">
-        <v>0.7526400105073474</v>
+        <v>-0.4100579484931046</v>
       </c>
       <c r="E4">
-        <v>0.766188534051859</v>
+        <v>-0.06654041837335684</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.290284070176041</v>
+        <v>-0.07107696198795421</v>
       </c>
       <c r="D5">
-        <v>0.9870820026252902</v>
+        <v>-0.5212467407997181</v>
       </c>
       <c r="E5">
-        <v>1.018037918383457</v>
+        <v>-0.09656599991243743</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1493061111297325</v>
+        <v>-0.1091414837472091</v>
       </c>
       <c r="D6">
-        <v>0.4207588246882061</v>
+        <v>-0.6997694597631545</v>
       </c>
       <c r="E6">
-        <v>0.4060302556227978</v>
+        <v>-0.1482809086826538</v>
       </c>
       <c r="F6">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1790970366526925</v>
+        <v>-0.09120397390758106</v>
       </c>
       <c r="D7">
-        <v>0.5517956736642033</v>
+        <v>-0.6301605260261025</v>
       </c>
       <c r="E7">
-        <v>0.4870451384953213</v>
+        <v>-0.1239107959885234</v>
       </c>
       <c r="F7">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>20</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0.1700257517185289</v>
+        <v>-0.09519603622178485</v>
       </c>
       <c r="D8">
-        <v>0.5192143306454374</v>
+        <v>-0.6498738793181558</v>
       </c>
       <c r="E8">
-        <v>0.478088894688818</v>
+        <v>-0.1293344589913004</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>60</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>0</v>

--- a/cta策略/result/螺纹/RSI_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/RSI_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>参数</t>
   </si>
@@ -34,12 +34,24 @@
     <t>绩效数据</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -52,13 +64,22 @@
     <t>14</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>-inf</t>
   </si>
 </sst>
 </file>
@@ -416,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,16 +468,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.04409476185828631</v>
+        <v>-0.04100732909512028</v>
       </c>
       <c r="D2">
-        <v>-0.3847292042263911</v>
+        <v>-0.6163101583699205</v>
       </c>
       <c r="E2">
-        <v>-0.05990766418052403</v>
+        <v>-0.1086649107066903</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,16 +488,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.04853594103352055</v>
+        <v>-0.02597682697268833</v>
       </c>
       <c r="D3">
-        <v>-0.4062270683291955</v>
+        <v>-0.6221847993164792</v>
       </c>
       <c r="E3">
-        <v>-0.06594150265436688</v>
+        <v>-0.0844565552200567</v>
       </c>
       <c r="F3">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,16 +508,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.0489767702056022</v>
+        <v>-0.001481459403107954</v>
       </c>
       <c r="D4">
-        <v>-0.4100579484931046</v>
+        <v>-0.5816696125776629</v>
       </c>
       <c r="E4">
-        <v>-0.06654041837335684</v>
+        <v>-0.008630367727859465</v>
       </c>
       <c r="F4">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -507,16 +528,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.07107696198795421</v>
+        <v>-0.002399933717617486</v>
       </c>
       <c r="D5">
-        <v>-0.5212467407997181</v>
+        <v>-0.7328473034916372</v>
       </c>
       <c r="E5">
-        <v>-0.09656599991243743</v>
+        <v>-0.01985563261845666</v>
       </c>
       <c r="F5">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -527,16 +548,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.1091414837472091</v>
+        <v>-0.00668210486916021</v>
       </c>
       <c r="D6">
-        <v>-0.6997694597631545</v>
+        <v>-0.829888525902412</v>
       </c>
       <c r="E6">
-        <v>-0.1482809086826538</v>
+        <v>-0.05809548164135128</v>
       </c>
       <c r="F6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,16 +568,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>-0.09120397390758106</v>
+        <v>-0.005210560210370696</v>
       </c>
       <c r="D7">
-        <v>-0.6301605260261025</v>
+        <v>-0.9219250041477839</v>
       </c>
       <c r="E7">
-        <v>-0.1239107959885234</v>
+        <v>-0.04912238310632375</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,16 +588,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>-0.09519603622178485</v>
+        <v>-0.004504513028625534</v>
       </c>
       <c r="D8">
-        <v>-0.6498738793181558</v>
+        <v>-0.9081888687689624</v>
       </c>
       <c r="E8">
-        <v>-0.1293344589913004</v>
+        <v>-0.04246614677998863</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,12 +608,175 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+        <v>0.003888425311968202</v>
+      </c>
+      <c r="D9">
+        <v>-1.32047650986811</v>
+      </c>
+      <c r="E9">
+        <v>0.07671370577123035</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="C10">
+        <v>0.006550313642472716</v>
+      </c>
+      <c r="D10">
+        <v>-1.267462622274732</v>
+      </c>
+      <c r="E10">
+        <v>0.2064266330755751</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.007574189886152549</v>
+      </c>
+      <c r="D11">
+        <v>-1.515228130425243</v>
+      </c>
+      <c r="E11">
+        <v>15.13772737992115</v>
+      </c>
+      <c r="F11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.007574189886152549</v>
+      </c>
+      <c r="D12">
+        <v>-1.515228130425243</v>
+      </c>
+      <c r="E12">
+        <v>15.13772737992115</v>
+      </c>
+      <c r="F12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
